--- a/Output Data/Crpo/Common_folder/Performance/chart_analysis.xlsx
+++ b/Output Data/Crpo/Common_folder/Performance/chart_analysis.xlsx
@@ -170,16 +170,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.008457779487179</c:v>
+                  <c:v>1.017667529629629</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.248093528205129</c:v>
+                  <c:v>2.394244229629629</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9111224871794869</c:v>
+                  <c:v>0.9705656185185184</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.484312912820513</c:v>
+                  <c:v>3.67849944074074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -233,16 +233,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.7814150051282051</c:v>
+                  <c:v>0.8462364925925926</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.333653133333333</c:v>
+                  <c:v>2.251913892592592</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0361158</c:v>
+                  <c:v>1.067631985185185</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.333439323076924</c:v>
+                  <c:v>2.342413448148148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -296,16 +296,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.007967215384616</c:v>
+                  <c:v>1.060222825925926</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.94498638974359</c:v>
+                  <c:v>1.903315566666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.077289533333333</c:v>
+                  <c:v>1.110788359259259</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2321714</c:v>
+                  <c:v>2.221533618518519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -359,16 +359,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.310455107692307</c:v>
+                  <c:v>1.40201885925926</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.281775902564102</c:v>
+                  <c:v>2.342517885185185</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.508780938461539</c:v>
+                  <c:v>1.556593781481482</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.82541278974359</c:v>
+                  <c:v>2.837793237037037</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -422,16 +422,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.7948279846153847</c:v>
+                  <c:v>0.8746314259259259</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.816940292307692</c:v>
+                  <c:v>1.903180644444444</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.076132805128205</c:v>
+                  <c:v>1.101075914814815</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.99418278974359</c:v>
+                  <c:v>1.918087733333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -865,19 +865,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>1.008457779487179</v>
+        <v>1.017667529629629</v>
       </c>
       <c r="C2">
-        <v>0.7814150051282051</v>
+        <v>0.8462364925925926</v>
       </c>
       <c r="D2">
-        <v>1.007967215384616</v>
+        <v>1.060222825925926</v>
       </c>
       <c r="E2">
-        <v>1.310455107692307</v>
+        <v>1.40201885925926</v>
       </c>
       <c r="F2">
-        <v>0.7948279846153847</v>
+        <v>0.8746314259259259</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -885,19 +885,19 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>2.248093528205129</v>
+        <v>2.394244229629629</v>
       </c>
       <c r="C3">
-        <v>2.333653133333333</v>
+        <v>2.251913892592592</v>
       </c>
       <c r="D3">
-        <v>1.94498638974359</v>
+        <v>1.903315566666667</v>
       </c>
       <c r="E3">
-        <v>2.281775902564102</v>
+        <v>2.342517885185185</v>
       </c>
       <c r="F3">
-        <v>1.816940292307692</v>
+        <v>1.903180644444444</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -905,19 +905,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.9111224871794869</v>
+        <v>0.9705656185185184</v>
       </c>
       <c r="C4">
-        <v>1.0361158</v>
+        <v>1.067631985185185</v>
       </c>
       <c r="D4">
-        <v>1.077289533333333</v>
+        <v>1.110788359259259</v>
       </c>
       <c r="E4">
-        <v>1.508780938461539</v>
+        <v>1.556593781481482</v>
       </c>
       <c r="F4">
-        <v>1.076132805128205</v>
+        <v>1.101075914814815</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -925,19 +925,19 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>3.484312912820513</v>
+        <v>3.67849944074074</v>
       </c>
       <c r="C5">
-        <v>2.333439323076924</v>
+        <v>2.342413448148148</v>
       </c>
       <c r="D5">
-        <v>2.2321714</v>
+        <v>2.221533618518519</v>
       </c>
       <c r="E5">
-        <v>2.82541278974359</v>
+        <v>2.837793237037037</v>
       </c>
       <c r="F5">
-        <v>1.99418278974359</v>
+        <v>1.918087733333333</v>
       </c>
     </row>
   </sheetData>

--- a/Output Data/Crpo/Common_folder/Performance/chart_analysis.xlsx
+++ b/Output Data/Crpo/Common_folder/Performance/chart_analysis.xlsx
@@ -170,16 +170,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.017667529629629</c:v>
+                  <c:v>1.398348997222222</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.394244229629629</c:v>
+                  <c:v>2.583282788888889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9705656185185184</c:v>
+                  <c:v>1.037996477777778</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.67849944074074</c:v>
+                  <c:v>3.724320513888887</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -233,16 +233,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.8462364925925926</c:v>
+                  <c:v>1.031461436111111</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.251913892592592</c:v>
+                  <c:v>2.213050130555555</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.067631985185185</c:v>
+                  <c:v>1.227852825</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.342413448148148</c:v>
+                  <c:v>2.314687908333335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -296,16 +296,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.060222825925926</c:v>
+                  <c:v>1.218172936111111</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.903315566666667</c:v>
+                  <c:v>1.828600397222222</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.110788359259259</c:v>
+                  <c:v>1.232444222222222</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.221533618518519</c:v>
+                  <c:v>2.164994475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -359,16 +359,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.40201885925926</c:v>
+                  <c:v>1.595166272222222</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.342517885185185</c:v>
+                  <c:v>2.290035813888889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.556593781481482</c:v>
+                  <c:v>1.734604025000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.837793237037037</c:v>
+                  <c:v>2.825620397222222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -422,16 +422,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.8746314259259259</c:v>
+                  <c:v>1.034899277777778</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.903180644444444</c:v>
+                  <c:v>1.817330577777778</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.101075914814815</c:v>
+                  <c:v>1.19926223611111</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.918087733333333</c:v>
+                  <c:v>1.941196541666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -865,19 +865,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>1.017667529629629</v>
+        <v>1.398348997222222</v>
       </c>
       <c r="C2">
-        <v>0.8462364925925926</v>
+        <v>1.031461436111111</v>
       </c>
       <c r="D2">
-        <v>1.060222825925926</v>
+        <v>1.218172936111111</v>
       </c>
       <c r="E2">
-        <v>1.40201885925926</v>
+        <v>1.595166272222222</v>
       </c>
       <c r="F2">
-        <v>0.8746314259259259</v>
+        <v>1.034899277777778</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -885,19 +885,19 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>2.394244229629629</v>
+        <v>2.583282788888889</v>
       </c>
       <c r="C3">
-        <v>2.251913892592592</v>
+        <v>2.213050130555555</v>
       </c>
       <c r="D3">
-        <v>1.903315566666667</v>
+        <v>1.828600397222222</v>
       </c>
       <c r="E3">
-        <v>2.342517885185185</v>
+        <v>2.290035813888889</v>
       </c>
       <c r="F3">
-        <v>1.903180644444444</v>
+        <v>1.817330577777778</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -905,19 +905,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.9705656185185184</v>
+        <v>1.037996477777778</v>
       </c>
       <c r="C4">
-        <v>1.067631985185185</v>
+        <v>1.227852825</v>
       </c>
       <c r="D4">
-        <v>1.110788359259259</v>
+        <v>1.232444222222222</v>
       </c>
       <c r="E4">
-        <v>1.556593781481482</v>
+        <v>1.734604025000001</v>
       </c>
       <c r="F4">
-        <v>1.101075914814815</v>
+        <v>1.19926223611111</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -925,19 +925,19 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>3.67849944074074</v>
+        <v>3.724320513888887</v>
       </c>
       <c r="C5">
-        <v>2.342413448148148</v>
+        <v>2.314687908333335</v>
       </c>
       <c r="D5">
-        <v>2.221533618518519</v>
+        <v>2.164994475</v>
       </c>
       <c r="E5">
-        <v>2.837793237037037</v>
+        <v>2.825620397222222</v>
       </c>
       <c r="F5">
-        <v>1.918087733333333</v>
+        <v>1.941196541666667</v>
       </c>
     </row>
   </sheetData>

--- a/Output Data/Crpo/Common_folder/Performance/chart_analysis.xlsx
+++ b/Output Data/Crpo/Common_folder/Performance/chart_analysis.xlsx
@@ -170,16 +170,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.398348997222222</c:v>
+                  <c:v>1.368953378571428</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.583282788888889</c:v>
+                  <c:v>2.575864909523808</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.037996477777778</c:v>
+                  <c:v>1.0956977</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.724320513888887</c:v>
+                  <c:v>3.82453064047619</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -233,16 +233,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.031461436111111</c:v>
+                  <c:v>1.035145914285714</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.213050130555555</c:v>
+                  <c:v>2.216310861904761</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.227852825</c:v>
+                  <c:v>1.320086009523809</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.314687908333335</c:v>
+                  <c:v>2.239820573809525</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -296,16 +296,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.218172936111111</c:v>
+                  <c:v>1.190273454761904</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.828600397222222</c:v>
+                  <c:v>1.796485045238096</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.232444222222222</c:v>
+                  <c:v>1.339406652380952</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.164994475</c:v>
+                  <c:v>2.048287628571429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -359,16 +359,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.595166272222222</c:v>
+                  <c:v>1.614497428571429</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.290035813888889</c:v>
+                  <c:v>2.298227688095238</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.734604025000001</c:v>
+                  <c:v>1.867981885714286</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.825620397222222</c:v>
+                  <c:v>2.72799328095238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -422,16 +422,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.034899277777778</c:v>
+                  <c:v>1.033517330952381</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.817330577777778</c:v>
+                  <c:v>1.783296176190476</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.19926223611111</c:v>
+                  <c:v>1.252167423809523</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.941196541666667</c:v>
+                  <c:v>1.869044333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -865,19 +865,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>1.398348997222222</v>
+        <v>1.368953378571428</v>
       </c>
       <c r="C2">
-        <v>1.031461436111111</v>
+        <v>1.035145914285714</v>
       </c>
       <c r="D2">
-        <v>1.218172936111111</v>
+        <v>1.190273454761904</v>
       </c>
       <c r="E2">
-        <v>1.595166272222222</v>
+        <v>1.614497428571429</v>
       </c>
       <c r="F2">
-        <v>1.034899277777778</v>
+        <v>1.033517330952381</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -885,19 +885,19 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>2.583282788888889</v>
+        <v>2.575864909523808</v>
       </c>
       <c r="C3">
-        <v>2.213050130555555</v>
+        <v>2.216310861904761</v>
       </c>
       <c r="D3">
-        <v>1.828600397222222</v>
+        <v>1.796485045238096</v>
       </c>
       <c r="E3">
-        <v>2.290035813888889</v>
+        <v>2.298227688095238</v>
       </c>
       <c r="F3">
-        <v>1.817330577777778</v>
+        <v>1.783296176190476</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -905,19 +905,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>1.037996477777778</v>
+        <v>1.0956977</v>
       </c>
       <c r="C4">
-        <v>1.227852825</v>
+        <v>1.320086009523809</v>
       </c>
       <c r="D4">
-        <v>1.232444222222222</v>
+        <v>1.339406652380952</v>
       </c>
       <c r="E4">
-        <v>1.734604025000001</v>
+        <v>1.867981885714286</v>
       </c>
       <c r="F4">
-        <v>1.19926223611111</v>
+        <v>1.252167423809523</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -925,19 +925,19 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>3.724320513888887</v>
+        <v>3.82453064047619</v>
       </c>
       <c r="C5">
-        <v>2.314687908333335</v>
+        <v>2.239820573809525</v>
       </c>
       <c r="D5">
-        <v>2.164994475</v>
+        <v>2.048287628571429</v>
       </c>
       <c r="E5">
-        <v>2.825620397222222</v>
+        <v>2.72799328095238</v>
       </c>
       <c r="F5">
-        <v>1.941196541666667</v>
+        <v>1.869044333333334</v>
       </c>
     </row>
   </sheetData>

--- a/Output Data/Crpo/Common_folder/Performance/chart_analysis.xlsx
+++ b/Output Data/Crpo/Common_folder/Performance/chart_analysis.xlsx
@@ -170,16 +170,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.368953378571428</c:v>
+                  <c:v>1.334451744827586</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.575864909523808</c:v>
+                  <c:v>2.552346855172413</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0956977</c:v>
+                  <c:v>1.098509287356322</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.82453064047619</c:v>
+                  <c:v>3.849243278160919</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -233,16 +233,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.035145914285714</c:v>
+                  <c:v>1.010044170114943</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.216310861904761</c:v>
+                  <c:v>2.306662970114942</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.320086009523809</c:v>
+                  <c:v>1.327625956321839</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.239820573809525</c:v>
+                  <c:v>2.198346811494253</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -296,16 +296,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.190273454761904</c:v>
+                  <c:v>1.160596259770115</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.796485045238096</c:v>
+                  <c:v>1.921958181609196</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.339406652380952</c:v>
+                  <c:v>1.349133710344827</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.048287628571429</c:v>
+                  <c:v>2.008813149425288</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -359,16 +359,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.614497428571429</c:v>
+                  <c:v>1.591074064367816</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.298227688095238</c:v>
+                  <c:v>2.376835326436782</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.867981885714286</c:v>
+                  <c:v>1.880159213793104</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.72799328095238</c:v>
+                  <c:v>2.688602498850574</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -422,16 +422,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.033517330952381</c:v>
+                  <c:v>1.008805643678161</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.783296176190476</c:v>
+                  <c:v>1.841203227586207</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.252167423809523</c:v>
+                  <c:v>1.251415147126436</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.869044333333334</c:v>
+                  <c:v>1.840514965517242</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -865,19 +865,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>1.368953378571428</v>
+        <v>1.334451744827586</v>
       </c>
       <c r="C2">
-        <v>1.035145914285714</v>
+        <v>1.010044170114943</v>
       </c>
       <c r="D2">
-        <v>1.190273454761904</v>
+        <v>1.160596259770115</v>
       </c>
       <c r="E2">
-        <v>1.614497428571429</v>
+        <v>1.591074064367816</v>
       </c>
       <c r="F2">
-        <v>1.033517330952381</v>
+        <v>1.008805643678161</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -885,19 +885,19 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>2.575864909523808</v>
+        <v>2.552346855172413</v>
       </c>
       <c r="C3">
-        <v>2.216310861904761</v>
+        <v>2.306662970114942</v>
       </c>
       <c r="D3">
-        <v>1.796485045238096</v>
+        <v>1.921958181609196</v>
       </c>
       <c r="E3">
-        <v>2.298227688095238</v>
+        <v>2.376835326436782</v>
       </c>
       <c r="F3">
-        <v>1.783296176190476</v>
+        <v>1.841203227586207</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -905,19 +905,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>1.0956977</v>
+        <v>1.098509287356322</v>
       </c>
       <c r="C4">
-        <v>1.320086009523809</v>
+        <v>1.327625956321839</v>
       </c>
       <c r="D4">
-        <v>1.339406652380952</v>
+        <v>1.349133710344827</v>
       </c>
       <c r="E4">
-        <v>1.867981885714286</v>
+        <v>1.880159213793104</v>
       </c>
       <c r="F4">
-        <v>1.252167423809523</v>
+        <v>1.251415147126436</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -925,19 +925,19 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>3.82453064047619</v>
+        <v>3.849243278160919</v>
       </c>
       <c r="C5">
-        <v>2.239820573809525</v>
+        <v>2.198346811494253</v>
       </c>
       <c r="D5">
-        <v>2.048287628571429</v>
+        <v>2.008813149425288</v>
       </c>
       <c r="E5">
-        <v>2.72799328095238</v>
+        <v>2.688602498850574</v>
       </c>
       <c r="F5">
-        <v>1.869044333333334</v>
+        <v>1.840514965517242</v>
       </c>
     </row>
   </sheetData>

--- a/Output Data/Crpo/Common_folder/Performance/chart_analysis.xlsx
+++ b/Output Data/Crpo/Common_folder/Performance/chart_analysis.xlsx
@@ -170,16 +170,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.334451744827586</c:v>
+                  <c:v>1.301254611764705</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.552346855172413</c:v>
+                  <c:v>2.536945201960783</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.098509287356322</c:v>
+                  <c:v>1.145727921568627</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.849243278160919</c:v>
+                  <c:v>3.907421631372548</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -233,16 +233,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.010044170114943</c:v>
+                  <c:v>1.043826319607843</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.306662970114942</c:v>
+                  <c:v>2.240113694117647</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.327625956321839</c:v>
+                  <c:v>1.413383370588235</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.198346811494253</c:v>
+                  <c:v>2.134655296078432</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -296,16 +296,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.160596259770115</c:v>
+                  <c:v>1.132900639215686</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.921958181609196</c:v>
+                  <c:v>1.814604149019608</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.349133710344827</c:v>
+                  <c:v>1.449976074509804</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.008813149425288</c:v>
+                  <c:v>1.978535880392158</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -359,16 +359,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.591074064367816</c:v>
+                  <c:v>1.604648917647059</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.376835326436782</c:v>
+                  <c:v>2.332010237254902</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.880159213793104</c:v>
+                  <c:v>1.97885524509804</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.688602498850574</c:v>
+                  <c:v>2.670526364705882</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -422,16 +422,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.008805643678161</c:v>
+                  <c:v>0.9972499666666665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.841203227586207</c:v>
+                  <c:v>1.797154560784314</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.251415147126436</c:v>
+                  <c:v>1.287708529411764</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.840514965517242</c:v>
+                  <c:v>1.808096752941177</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -865,19 +865,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>1.334451744827586</v>
+        <v>1.301254611764705</v>
       </c>
       <c r="C2">
-        <v>1.010044170114943</v>
+        <v>1.043826319607843</v>
       </c>
       <c r="D2">
-        <v>1.160596259770115</v>
+        <v>1.132900639215686</v>
       </c>
       <c r="E2">
-        <v>1.591074064367816</v>
+        <v>1.604648917647059</v>
       </c>
       <c r="F2">
-        <v>1.008805643678161</v>
+        <v>0.9972499666666665</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -885,19 +885,19 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>2.552346855172413</v>
+        <v>2.536945201960783</v>
       </c>
       <c r="C3">
-        <v>2.306662970114942</v>
+        <v>2.240113694117647</v>
       </c>
       <c r="D3">
-        <v>1.921958181609196</v>
+        <v>1.814604149019608</v>
       </c>
       <c r="E3">
-        <v>2.376835326436782</v>
+        <v>2.332010237254902</v>
       </c>
       <c r="F3">
-        <v>1.841203227586207</v>
+        <v>1.797154560784314</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -905,19 +905,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>1.098509287356322</v>
+        <v>1.145727921568627</v>
       </c>
       <c r="C4">
-        <v>1.327625956321839</v>
+        <v>1.413383370588235</v>
       </c>
       <c r="D4">
-        <v>1.349133710344827</v>
+        <v>1.449976074509804</v>
       </c>
       <c r="E4">
-        <v>1.880159213793104</v>
+        <v>1.97885524509804</v>
       </c>
       <c r="F4">
-        <v>1.251415147126436</v>
+        <v>1.287708529411764</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -925,19 +925,19 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>3.849243278160919</v>
+        <v>3.907421631372548</v>
       </c>
       <c r="C5">
-        <v>2.198346811494253</v>
+        <v>2.134655296078432</v>
       </c>
       <c r="D5">
-        <v>2.008813149425288</v>
+        <v>1.978535880392158</v>
       </c>
       <c r="E5">
-        <v>2.688602498850574</v>
+        <v>2.670526364705882</v>
       </c>
       <c r="F5">
-        <v>1.840514965517242</v>
+        <v>1.808096752941177</v>
       </c>
     </row>
   </sheetData>

--- a/Output Data/Crpo/Common_folder/Performance/chart_analysis.xlsx
+++ b/Output Data/Crpo/Common_folder/Performance/chart_analysis.xlsx
@@ -170,16 +170,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.301254611764705</c:v>
+                  <c:v>1.274042177192982</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.536945201960783</c:v>
+                  <c:v>2.521455150877193</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.145727921568627</c:v>
+                  <c:v>1.121662775438596</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.907421631372548</c:v>
+                  <c:v>3.873889570175439</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -233,16 +233,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.043826319607843</c:v>
+                  <c:v>1.029431070175439</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.240113694117647</c:v>
+                  <c:v>2.264607312280702</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.413383370588235</c:v>
+                  <c:v>1.382931940350877</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.134655296078432</c:v>
+                  <c:v>2.137445107017544</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -296,16 +296,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.132900639215686</c:v>
+                  <c:v>1.090810161403509</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.814604149019608</c:v>
+                  <c:v>1.774551466666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.449976074509804</c:v>
+                  <c:v>1.427815578947369</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.978535880392158</c:v>
+                  <c:v>1.975164764912281</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -359,16 +359,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.604648917647059</c:v>
+                  <c:v>1.605408938596492</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.332010237254902</c:v>
+                  <c:v>2.324613959649124</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.97885524509804</c:v>
+                  <c:v>1.952444192982457</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.670526364705882</c:v>
+                  <c:v>2.712454268421051</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -422,16 +422,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.9972499666666665</c:v>
+                  <c:v>0.9756099385964913</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.797154560784314</c:v>
+                  <c:v>1.756869729824562</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.287708529411764</c:v>
+                  <c:v>1.261649959649123</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.808096752941177</c:v>
+                  <c:v>1.799800447368421</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -865,19 +865,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>1.301254611764705</v>
+        <v>1.274042177192982</v>
       </c>
       <c r="C2">
-        <v>1.043826319607843</v>
+        <v>1.029431070175439</v>
       </c>
       <c r="D2">
-        <v>1.132900639215686</v>
+        <v>1.090810161403509</v>
       </c>
       <c r="E2">
-        <v>1.604648917647059</v>
+        <v>1.605408938596492</v>
       </c>
       <c r="F2">
-        <v>0.9972499666666665</v>
+        <v>0.9756099385964913</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -885,19 +885,19 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>2.536945201960783</v>
+        <v>2.521455150877193</v>
       </c>
       <c r="C3">
-        <v>2.240113694117647</v>
+        <v>2.264607312280702</v>
       </c>
       <c r="D3">
-        <v>1.814604149019608</v>
+        <v>1.774551466666667</v>
       </c>
       <c r="E3">
-        <v>2.332010237254902</v>
+        <v>2.324613959649124</v>
       </c>
       <c r="F3">
-        <v>1.797154560784314</v>
+        <v>1.756869729824562</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -905,19 +905,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>1.145727921568627</v>
+        <v>1.121662775438596</v>
       </c>
       <c r="C4">
-        <v>1.413383370588235</v>
+        <v>1.382931940350877</v>
       </c>
       <c r="D4">
-        <v>1.449976074509804</v>
+        <v>1.427815578947369</v>
       </c>
       <c r="E4">
-        <v>1.97885524509804</v>
+        <v>1.952444192982457</v>
       </c>
       <c r="F4">
-        <v>1.287708529411764</v>
+        <v>1.261649959649123</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -925,19 +925,19 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>3.907421631372548</v>
+        <v>3.873889570175439</v>
       </c>
       <c r="C5">
-        <v>2.134655296078432</v>
+        <v>2.137445107017544</v>
       </c>
       <c r="D5">
-        <v>1.978535880392158</v>
+        <v>1.975164764912281</v>
       </c>
       <c r="E5">
-        <v>2.670526364705882</v>
+        <v>2.712454268421051</v>
       </c>
       <c r="F5">
-        <v>1.808096752941177</v>
+        <v>1.799800447368421</v>
       </c>
     </row>
   </sheetData>

--- a/Output Data/Crpo/Common_folder/Performance/chart_analysis.xlsx
+++ b/Output Data/Crpo/Common_folder/Performance/chart_analysis.xlsx
@@ -170,16 +170,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.274042177192982</c:v>
+                  <c:v>1.21832058095238</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.521455150877193</c:v>
+                  <c:v>2.497181979365079</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.121662775438596</c:v>
+                  <c:v>1.086442057142857</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.873889570175439</c:v>
+                  <c:v>3.87266203968254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -233,16 +233,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.029431070175439</c:v>
+                  <c:v>0.9935309603174607</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.264607312280702</c:v>
+                  <c:v>2.27542769047619</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.382931940350877</c:v>
+                  <c:v>1.368625688888889</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.137445107017544</c:v>
+                  <c:v>2.128819355555556</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -296,16 +296,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.090810161403509</c:v>
+                  <c:v>1.046826265079365</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.774551466666667</c:v>
+                  <c:v>1.730245468253969</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.427815578947369</c:v>
+                  <c:v>1.386791787301588</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.975164764912281</c:v>
+                  <c:v>1.99613370952381</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -359,16 +359,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.605408938596492</c:v>
+                  <c:v>1.617602347619048</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.324613959649124</c:v>
+                  <c:v>2.322371144444445</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.952444192982457</c:v>
+                  <c:v>1.922480903174604</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.712454268421051</c:v>
+                  <c:v>2.765872276190475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -422,16 +422,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.9756099385964913</c:v>
+                  <c:v>0.9433901285714285</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.756869729824562</c:v>
+                  <c:v>1.7193199</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.261649959649123</c:v>
+                  <c:v>1.232480744444445</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.799800447368421</c:v>
+                  <c:v>1.781353692063492</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -865,19 +865,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>1.274042177192982</v>
+        <v>1.21832058095238</v>
       </c>
       <c r="C2">
-        <v>1.029431070175439</v>
+        <v>0.9935309603174607</v>
       </c>
       <c r="D2">
-        <v>1.090810161403509</v>
+        <v>1.046826265079365</v>
       </c>
       <c r="E2">
-        <v>1.605408938596492</v>
+        <v>1.617602347619048</v>
       </c>
       <c r="F2">
-        <v>0.9756099385964913</v>
+        <v>0.9433901285714285</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -885,19 +885,19 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>2.521455150877193</v>
+        <v>2.497181979365079</v>
       </c>
       <c r="C3">
-        <v>2.264607312280702</v>
+        <v>2.27542769047619</v>
       </c>
       <c r="D3">
-        <v>1.774551466666667</v>
+        <v>1.730245468253969</v>
       </c>
       <c r="E3">
-        <v>2.324613959649124</v>
+        <v>2.322371144444445</v>
       </c>
       <c r="F3">
-        <v>1.756869729824562</v>
+        <v>1.7193199</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -905,19 +905,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>1.121662775438596</v>
+        <v>1.086442057142857</v>
       </c>
       <c r="C4">
-        <v>1.382931940350877</v>
+        <v>1.368625688888889</v>
       </c>
       <c r="D4">
-        <v>1.427815578947369</v>
+        <v>1.386791787301588</v>
       </c>
       <c r="E4">
-        <v>1.952444192982457</v>
+        <v>1.922480903174604</v>
       </c>
       <c r="F4">
-        <v>1.261649959649123</v>
+        <v>1.232480744444445</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -925,19 +925,19 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>3.873889570175439</v>
+        <v>3.87266203968254</v>
       </c>
       <c r="C5">
-        <v>2.137445107017544</v>
+        <v>2.128819355555556</v>
       </c>
       <c r="D5">
-        <v>1.975164764912281</v>
+        <v>1.99613370952381</v>
       </c>
       <c r="E5">
-        <v>2.712454268421051</v>
+        <v>2.765872276190475</v>
       </c>
       <c r="F5">
-        <v>1.799800447368421</v>
+        <v>1.781353692063492</v>
       </c>
     </row>
   </sheetData>

--- a/Output Data/Crpo/Common_folder/Performance/chart_analysis.xlsx
+++ b/Output Data/Crpo/Common_folder/Performance/chart_analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>get_tenant_details</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>getTestUsersForTest</t>
+  </si>
+  <si>
+    <t>interview</t>
+  </si>
+  <si>
+    <t>interview_new</t>
   </si>
   <si>
     <t>AMSIN_NON_EU</t>
@@ -170,16 +176,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.21832058095238</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.497181979365079</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.086442057142857</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.87266203968254</c:v>
+                  <c:v>1.161827581294963</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.448821469064748</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.021376739568345</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.839213437410072</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -233,16 +239,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.9935309603174607</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.27542769047619</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.368625688888889</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.128819355555556</c:v>
+                  <c:v>0.9352611208633096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.202469553956834</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.284911778417266</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.056331359712231</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -296,16 +302,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.046826265079365</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.730245468253969</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.386791787301588</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.99613370952381</c:v>
+                  <c:v>0.984325598561151</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.661092615827339</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.323073283453238</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.939246870503598</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -359,16 +365,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.617602347619048</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.322371144444445</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.922480903174604</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.765872276190475</c:v>
+                  <c:v>1.57429501294964</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.282897650359712</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.859480120863311</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.716341187050359</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -422,16 +428,142 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.9433901285714285</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7193199</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.232480744444445</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.781353692063492</c:v>
+                  <c:v>0.8922638676258993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.64759233381295</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.168918392805756</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.710564005755395</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>interview</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>AMSIN_NON_EU</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AMSIN_EU</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LIVE_NON_EU</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LIVE_EU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$G$2:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.1159046748201439</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.06540645179856117</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.07801122158273381</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.07795220863309353</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>interview_new</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>AMSIN_NON_EU</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AMSIN_EU</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LIVE_NON_EU</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LIVE_EU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$H$2:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.05025791366906475</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04741873956834533</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03567814244604316</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06213537122302158</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -837,13 +969,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -859,85 +991,115 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>1.21832058095238</v>
+        <v>1.161827581294963</v>
       </c>
       <c r="C2">
-        <v>0.9935309603174607</v>
+        <v>0.9352611208633096</v>
       </c>
       <c r="D2">
-        <v>1.046826265079365</v>
+        <v>0.984325598561151</v>
       </c>
       <c r="E2">
-        <v>1.617602347619048</v>
+        <v>1.57429501294964</v>
       </c>
       <c r="F2">
-        <v>0.9433901285714285</v>
+        <v>0.8922638676258993</v>
+      </c>
+      <c r="G2">
+        <v>0.1159046748201439</v>
+      </c>
+      <c r="H2">
+        <v>0.05025791366906475</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>2.497181979365079</v>
+        <v>2.448821469064748</v>
       </c>
       <c r="C3">
-        <v>2.27542769047619</v>
+        <v>2.202469553956834</v>
       </c>
       <c r="D3">
-        <v>1.730245468253969</v>
+        <v>1.661092615827339</v>
       </c>
       <c r="E3">
-        <v>2.322371144444445</v>
+        <v>2.282897650359712</v>
       </c>
       <c r="F3">
-        <v>1.7193199</v>
+        <v>1.64759233381295</v>
+      </c>
+      <c r="G3">
+        <v>0.06540645179856117</v>
+      </c>
+      <c r="H3">
+        <v>0.04741873956834533</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>1.086442057142857</v>
+        <v>1.021376739568345</v>
       </c>
       <c r="C4">
-        <v>1.368625688888889</v>
+        <v>1.284911778417266</v>
       </c>
       <c r="D4">
-        <v>1.386791787301588</v>
+        <v>1.323073283453238</v>
       </c>
       <c r="E4">
-        <v>1.922480903174604</v>
+        <v>1.859480120863311</v>
       </c>
       <c r="F4">
-        <v>1.232480744444445</v>
+        <v>1.168918392805756</v>
+      </c>
+      <c r="G4">
+        <v>0.07801122158273381</v>
+      </c>
+      <c r="H4">
+        <v>0.03567814244604316</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>3.87266203968254</v>
+        <v>3.839213437410072</v>
       </c>
       <c r="C5">
-        <v>2.128819355555556</v>
+        <v>2.056331359712231</v>
       </c>
       <c r="D5">
-        <v>1.99613370952381</v>
+        <v>1.939246870503598</v>
       </c>
       <c r="E5">
-        <v>2.765872276190475</v>
+        <v>2.716341187050359</v>
       </c>
       <c r="F5">
-        <v>1.781353692063492</v>
+        <v>1.710564005755395</v>
+      </c>
+      <c r="G5">
+        <v>0.07795220863309353</v>
+      </c>
+      <c r="H5">
+        <v>0.06213537122302158</v>
       </c>
     </row>
   </sheetData>

--- a/Output Data/Crpo/Common_folder/Performance/chart_analysis.xlsx
+++ b/Output Data/Crpo/Common_folder/Performance/chart_analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>get_tenant_details</t>
   </si>
@@ -29,12 +29,6 @@
   </si>
   <si>
     <t>getTestUsersForTest</t>
-  </si>
-  <si>
-    <t>interview</t>
-  </si>
-  <si>
-    <t>interview_new</t>
   </si>
   <si>
     <t>AMSIN_NON_EU</t>
@@ -176,16 +170,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.161827581294963</c:v>
+                  <c:v>1.150303233557045</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.448821469064748</c:v>
+                  <c:v>2.454889685906041</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.021376739568345</c:v>
+                  <c:v>1.024212775838926</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.839213437410072</c:v>
+                  <c:v>3.855616135570469</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -239,16 +233,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.9352611208633096</c:v>
+                  <c:v>0.9403151315436243</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.202469553956834</c:v>
+                  <c:v>2.194726245637583</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.284911778417266</c:v>
+                  <c:v>1.28446922818792</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.056331359712231</c:v>
+                  <c:v>2.085061546308725</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -302,16 +296,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.984325598561151</c:v>
+                  <c:v>0.9763298120805367</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.661092615827339</c:v>
+                  <c:v>1.660019887248323</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.323073283453238</c:v>
+                  <c:v>1.319644598657718</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.939246870503598</c:v>
+                  <c:v>1.966522461744967</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -365,16 +359,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.57429501294964</c:v>
+                  <c:v>1.59610028590604</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.282897650359712</c:v>
+                  <c:v>2.310788783892618</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.859480120863311</c:v>
+                  <c:v>1.884896977181209</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.716341187050359</c:v>
+                  <c:v>2.767534726174496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -428,142 +422,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.8922638676258993</c:v>
+                  <c:v>0.8917631543624162</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.64759233381295</c:v>
+                  <c:v>1.646313626845638</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.168918392805756</c:v>
+                  <c:v>1.189320820134229</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.710564005755395</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Dashboard!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>interview</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$A$2:$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>AMSIN_NON_EU</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>AMSIN_EU</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>LIVE_NON_EU</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>LIVE_EU</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dashboard!$G$2:$G$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.1159046748201439</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.06540645179856117</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.07801122158273381</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.07795220863309353</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Dashboard!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>interview_new</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$A$2:$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>AMSIN_NON_EU</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>AMSIN_EU</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>LIVE_NON_EU</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>LIVE_EU</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dashboard!$H$2:$H$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.05025791366906475</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.04741873956834533</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.03567814244604316</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.06213537122302158</c:v>
+                  <c:v>1.712983609395973</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -969,13 +837,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -991,115 +859,85 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B2">
+        <v>1.150303233557045</v>
+      </c>
+      <c r="C2">
+        <v>0.9403151315436243</v>
+      </c>
+      <c r="D2">
+        <v>0.9763298120805367</v>
+      </c>
+      <c r="E2">
+        <v>1.59610028590604</v>
+      </c>
+      <c r="F2">
+        <v>0.8917631543624162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B3">
+        <v>2.454889685906041</v>
+      </c>
+      <c r="C3">
+        <v>2.194726245637583</v>
+      </c>
+      <c r="D3">
+        <v>1.660019887248323</v>
+      </c>
+      <c r="E3">
+        <v>2.310788783892618</v>
+      </c>
+      <c r="F3">
+        <v>1.646313626845638</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>1.161827581294963</v>
-      </c>
-      <c r="C2">
-        <v>0.9352611208633096</v>
-      </c>
-      <c r="D2">
-        <v>0.984325598561151</v>
-      </c>
-      <c r="E2">
-        <v>1.57429501294964</v>
-      </c>
-      <c r="F2">
-        <v>0.8922638676258993</v>
-      </c>
-      <c r="G2">
-        <v>0.1159046748201439</v>
-      </c>
-      <c r="H2">
-        <v>0.05025791366906475</v>
+      <c r="B4">
+        <v>1.024212775838926</v>
+      </c>
+      <c r="C4">
+        <v>1.28446922818792</v>
+      </c>
+      <c r="D4">
+        <v>1.319644598657718</v>
+      </c>
+      <c r="E4">
+        <v>1.884896977181209</v>
+      </c>
+      <c r="F4">
+        <v>1.189320820134229</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
-        <v>2.448821469064748</v>
-      </c>
-      <c r="C3">
-        <v>2.202469553956834</v>
-      </c>
-      <c r="D3">
-        <v>1.661092615827339</v>
-      </c>
-      <c r="E3">
-        <v>2.282897650359712</v>
-      </c>
-      <c r="F3">
-        <v>1.64759233381295</v>
-      </c>
-      <c r="G3">
-        <v>0.06540645179856117</v>
-      </c>
-      <c r="H3">
-        <v>0.04741873956834533</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>1.021376739568345</v>
-      </c>
-      <c r="C4">
-        <v>1.284911778417266</v>
-      </c>
-      <c r="D4">
-        <v>1.323073283453238</v>
-      </c>
-      <c r="E4">
-        <v>1.859480120863311</v>
-      </c>
-      <c r="F4">
-        <v>1.168918392805756</v>
-      </c>
-      <c r="G4">
-        <v>0.07801122158273381</v>
-      </c>
-      <c r="H4">
-        <v>0.03567814244604316</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="B5">
-        <v>3.839213437410072</v>
+        <v>3.855616135570469</v>
       </c>
       <c r="C5">
-        <v>2.056331359712231</v>
+        <v>2.085061546308725</v>
       </c>
       <c r="D5">
-        <v>1.939246870503598</v>
+        <v>1.966522461744967</v>
       </c>
       <c r="E5">
-        <v>2.716341187050359</v>
+        <v>2.767534726174496</v>
       </c>
       <c r="F5">
-        <v>1.710564005755395</v>
-      </c>
-      <c r="G5">
-        <v>0.07795220863309353</v>
-      </c>
-      <c r="H5">
-        <v>0.06213537122302158</v>
+        <v>1.712983609395973</v>
       </c>
     </row>
   </sheetData>

--- a/Output Data/Crpo/Common_folder/Performance/chart_analysis.xlsx
+++ b/Output Data/Crpo/Common_folder/Performance/chart_analysis.xlsx
@@ -170,16 +170,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.150303233557045</c:v>
+                  <c:v>1.074282828915661</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.454889685906041</c:v>
+                  <c:v>2.410158706586826</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.024212775838926</c:v>
+                  <c:v>0.9493525077844311</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.855616135570469</c:v>
+                  <c:v>3.81975222035928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -233,16 +233,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.9403151315436243</c:v>
+                  <c:v>0.8848689795180724</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.194726245637583</c:v>
+                  <c:v>2.147704474251496</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.28446922818792</c:v>
+                  <c:v>1.188111749700599</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.085061546308725</c:v>
+                  <c:v>2.026430834730539</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -296,16 +296,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.9763298120805367</c:v>
+                  <c:v>0.9147445783132528</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.660019887248323</c:v>
+                  <c:v>1.578572431137725</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.319644598657718</c:v>
+                  <c:v>1.221295348502994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.966522461744967</c:v>
+                  <c:v>1.892750953293414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -359,16 +359,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.59610028590604</c:v>
+                  <c:v>1.549959214457831</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.310788783892618</c:v>
+                  <c:v>2.28203454491018</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.884896977181209</c:v>
+                  <c:v>1.800891368862276</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.767534726174496</c:v>
+                  <c:v>2.743855659880239</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -422,16 +422,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.8917631543624162</c:v>
+                  <c:v>0.8419583626506026</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.646313626845638</c:v>
+                  <c:v>1.579909580838323</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.189320820134229</c:v>
+                  <c:v>1.106961946107785</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.712983609395973</c:v>
+                  <c:v>1.633610536526945</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -865,19 +865,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>1.150303233557045</v>
+        <v>1.074282828915661</v>
       </c>
       <c r="C2">
-        <v>0.9403151315436243</v>
+        <v>0.8848689795180724</v>
       </c>
       <c r="D2">
-        <v>0.9763298120805367</v>
+        <v>0.9147445783132528</v>
       </c>
       <c r="E2">
-        <v>1.59610028590604</v>
+        <v>1.549959214457831</v>
       </c>
       <c r="F2">
-        <v>0.8917631543624162</v>
+        <v>0.8419583626506026</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -885,19 +885,19 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>2.454889685906041</v>
+        <v>2.410158706586826</v>
       </c>
       <c r="C3">
-        <v>2.194726245637583</v>
+        <v>2.147704474251496</v>
       </c>
       <c r="D3">
-        <v>1.660019887248323</v>
+        <v>1.578572431137725</v>
       </c>
       <c r="E3">
-        <v>2.310788783892618</v>
+        <v>2.28203454491018</v>
       </c>
       <c r="F3">
-        <v>1.646313626845638</v>
+        <v>1.579909580838323</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -905,19 +905,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>1.024212775838926</v>
+        <v>0.9493525077844311</v>
       </c>
       <c r="C4">
-        <v>1.28446922818792</v>
+        <v>1.188111749700599</v>
       </c>
       <c r="D4">
-        <v>1.319644598657718</v>
+        <v>1.221295348502994</v>
       </c>
       <c r="E4">
-        <v>1.884896977181209</v>
+        <v>1.800891368862276</v>
       </c>
       <c r="F4">
-        <v>1.189320820134229</v>
+        <v>1.106961946107785</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -925,19 +925,19 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>3.855616135570469</v>
+        <v>3.81975222035928</v>
       </c>
       <c r="C5">
-        <v>2.085061546308725</v>
+        <v>2.026430834730539</v>
       </c>
       <c r="D5">
-        <v>1.966522461744967</v>
+        <v>1.892750953293414</v>
       </c>
       <c r="E5">
-        <v>2.767534726174496</v>
+        <v>2.743855659880239</v>
       </c>
       <c r="F5">
-        <v>1.712983609395973</v>
+        <v>1.633610536526945</v>
       </c>
     </row>
   </sheetData>

--- a/Output Data/Crpo/Common_folder/Performance/chart_analysis.xlsx
+++ b/Output Data/Crpo/Common_folder/Performance/chart_analysis.xlsx
@@ -170,16 +170,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.074282828915661</c:v>
+                  <c:v>1.029200236871507</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.410158706586826</c:v>
+                  <c:v>2.389019732596685</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9493525077844311</c:v>
+                  <c:v>0.9153642748603353</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.81975222035928</c:v>
+                  <c:v>3.812634251111108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -233,16 +233,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.8848689795180724</c:v>
+                  <c:v>0.8534801061452516</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.147704474251496</c:v>
+                  <c:v>2.287274680662983</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.188111749700599</c:v>
+                  <c:v>1.140785701675978</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.026430834730539</c:v>
+                  <c:v>1.996457612222223</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -296,16 +296,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.9147445783132528</c:v>
+                  <c:v>0.8779275743016757</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.578572431137725</c:v>
+                  <c:v>1.750458490607735</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.221295348502994</c:v>
+                  <c:v>1.173347807821229</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.892750953293414</c:v>
+                  <c:v>1.841608207777778</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -359,16 +359,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.549959214457831</c:v>
+                  <c:v>1.529865779888268</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.28203454491018</c:v>
+                  <c:v>2.457450037569061</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.800891368862276</c:v>
+                  <c:v>1.763832234636872</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.743855659880239</c:v>
+                  <c:v>2.716257127777777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -422,16 +422,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.8419583626506026</c:v>
+                  <c:v>0.8170539553072627</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.579909580838323</c:v>
+                  <c:v>1.689195688397789</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.106961946107785</c:v>
+                  <c:v>1.068988913966481</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.633610536526945</c:v>
+                  <c:v>1.594091214444444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -865,19 +865,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>1.074282828915661</v>
+        <v>1.029200236871507</v>
       </c>
       <c r="C2">
-        <v>0.8848689795180724</v>
+        <v>0.8534801061452516</v>
       </c>
       <c r="D2">
-        <v>0.9147445783132528</v>
+        <v>0.8779275743016757</v>
       </c>
       <c r="E2">
-        <v>1.549959214457831</v>
+        <v>1.529865779888268</v>
       </c>
       <c r="F2">
-        <v>0.8419583626506026</v>
+        <v>0.8170539553072627</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -885,19 +885,19 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>2.410158706586826</v>
+        <v>2.389019732596685</v>
       </c>
       <c r="C3">
-        <v>2.147704474251496</v>
+        <v>2.287274680662983</v>
       </c>
       <c r="D3">
-        <v>1.578572431137725</v>
+        <v>1.750458490607735</v>
       </c>
       <c r="E3">
-        <v>2.28203454491018</v>
+        <v>2.457450037569061</v>
       </c>
       <c r="F3">
-        <v>1.579909580838323</v>
+        <v>1.689195688397789</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -905,19 +905,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.9493525077844311</v>
+        <v>0.9153642748603353</v>
       </c>
       <c r="C4">
-        <v>1.188111749700599</v>
+        <v>1.140785701675978</v>
       </c>
       <c r="D4">
-        <v>1.221295348502994</v>
+        <v>1.173347807821229</v>
       </c>
       <c r="E4">
-        <v>1.800891368862276</v>
+        <v>1.763832234636872</v>
       </c>
       <c r="F4">
-        <v>1.106961946107785</v>
+        <v>1.068988913966481</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -925,19 +925,19 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>3.81975222035928</v>
+        <v>3.812634251111108</v>
       </c>
       <c r="C5">
-        <v>2.026430834730539</v>
+        <v>1.996457612222223</v>
       </c>
       <c r="D5">
-        <v>1.892750953293414</v>
+        <v>1.841608207777778</v>
       </c>
       <c r="E5">
-        <v>2.743855659880239</v>
+        <v>2.716257127777777</v>
       </c>
       <c r="F5">
-        <v>1.633610536526945</v>
+        <v>1.594091214444444</v>
       </c>
     </row>
   </sheetData>

--- a/Output Data/Crpo/Common_folder/Performance/chart_analysis.xlsx
+++ b/Output Data/Crpo/Common_folder/Performance/chart_analysis.xlsx
@@ -170,16 +170,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.029200236871507</c:v>
+                  <c:v>0.9293552732394353</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.389019732596685</c:v>
+                  <c:v>2.64369787511737</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9153642748603353</c:v>
+                  <c:v>0.8273397230046949</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.812634251111108</c:v>
+                  <c:v>3.497751427230045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -233,16 +233,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.8534801061452516</c:v>
+                  <c:v>0.7760651342723004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.287274680662983</c:v>
+                  <c:v>2.565580691079811</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.140785701675978</c:v>
+                  <c:v>1.026098531455399</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.996457612222223</c:v>
+                  <c:v>1.909320076995305</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -296,16 +296,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.8779275743016757</c:v>
+                  <c:v>0.8094058685446007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.750458490607735</c:v>
+                  <c:v>2.159726682629108</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.173347807821229</c:v>
+                  <c:v>1.05173223286385</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.841608207777778</c:v>
+                  <c:v>1.70580891173709</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -359,16 +359,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.529865779888268</c:v>
+                  <c:v>1.494306509859155</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.457450037569061</c:v>
+                  <c:v>2.866674145539906</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.763832234636872</c:v>
+                  <c:v>1.602682704225353</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.716257127777777</c:v>
+                  <c:v>2.666413450704225</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -422,16 +422,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.8170539553072627</c:v>
+                  <c:v>0.7625755323943662</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.689195688397789</c:v>
+                  <c:v>1.954637310798122</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.068988913966481</c:v>
+                  <c:v>0.9773228225352117</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.594091214444444</c:v>
+                  <c:v>1.510705721126759</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -865,19 +865,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>1.029200236871507</v>
+        <v>0.9293552732394353</v>
       </c>
       <c r="C2">
-        <v>0.8534801061452516</v>
+        <v>0.7760651342723004</v>
       </c>
       <c r="D2">
-        <v>0.8779275743016757</v>
+        <v>0.8094058685446007</v>
       </c>
       <c r="E2">
-        <v>1.529865779888268</v>
+        <v>1.494306509859155</v>
       </c>
       <c r="F2">
-        <v>0.8170539553072627</v>
+        <v>0.7625755323943662</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -885,19 +885,19 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>2.389019732596685</v>
+        <v>2.64369787511737</v>
       </c>
       <c r="C3">
-        <v>2.287274680662983</v>
+        <v>2.565580691079811</v>
       </c>
       <c r="D3">
-        <v>1.750458490607735</v>
+        <v>2.159726682629108</v>
       </c>
       <c r="E3">
-        <v>2.457450037569061</v>
+        <v>2.866674145539906</v>
       </c>
       <c r="F3">
-        <v>1.689195688397789</v>
+        <v>1.954637310798122</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -905,19 +905,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.9153642748603353</v>
+        <v>0.8273397230046949</v>
       </c>
       <c r="C4">
-        <v>1.140785701675978</v>
+        <v>1.026098531455399</v>
       </c>
       <c r="D4">
-        <v>1.173347807821229</v>
+        <v>1.05173223286385</v>
       </c>
       <c r="E4">
-        <v>1.763832234636872</v>
+        <v>1.602682704225353</v>
       </c>
       <c r="F4">
-        <v>1.068988913966481</v>
+        <v>0.9773228225352117</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -925,19 +925,19 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>3.812634251111108</v>
+        <v>3.497751427230045</v>
       </c>
       <c r="C5">
-        <v>1.996457612222223</v>
+        <v>1.909320076995305</v>
       </c>
       <c r="D5">
-        <v>1.841608207777778</v>
+        <v>1.70580891173709</v>
       </c>
       <c r="E5">
-        <v>2.716257127777777</v>
+        <v>2.666413450704225</v>
       </c>
       <c r="F5">
-        <v>1.594091214444444</v>
+        <v>1.510705721126759</v>
       </c>
     </row>
   </sheetData>

--- a/Output Data/Crpo/Common_folder/Performance/chart_analysis.xlsx
+++ b/Output Data/Crpo/Common_folder/Performance/chart_analysis.xlsx
@@ -170,16 +170,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.9293552732394353</c:v>
+                  <c:v>0.8388541971830974</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.64369787511737</c:v>
+                  <c:v>2.102661069295772</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8273397230046949</c:v>
+                  <c:v>0.8022882552112675</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.497751427230045</c:v>
+                  <c:v>2.684783934084505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -233,16 +233,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.7760651342723004</c:v>
+                  <c:v>0.7436967667605638</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.565580691079811</c:v>
+                  <c:v>2.223039661971828</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.026098531455399</c:v>
+                  <c:v>1.00088637915493</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.909320076995305</c:v>
+                  <c:v>1.943153993802816</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -296,16 +296,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.8094058685446007</c:v>
+                  <c:v>0.753466139154929</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.159726682629108</c:v>
+                  <c:v>1.838635870422535</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.05173223286385</c:v>
+                  <c:v>1.025393019154929</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.70580891173709</c:v>
+                  <c:v>1.662989632676056</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -359,16 +359,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.494306509859155</c:v>
+                  <c:v>1.577541483380281</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.866674145539906</c:v>
+                  <c:v>2.509856481971832</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.602682704225353</c:v>
+                  <c:v>1.405510522253522</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.666413450704225</c:v>
+                  <c:v>2.627631305352113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -422,16 +422,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.7625755323943662</c:v>
+                  <c:v>0.7425976867605627</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.954637310798122</c:v>
+                  <c:v>1.811518788169014</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9773228225352117</c:v>
+                  <c:v>0.9597941774647891</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.510705721126759</c:v>
+                  <c:v>1.597829348169014</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -865,19 +865,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.9293552732394353</v>
+        <v>0.8388541971830974</v>
       </c>
       <c r="C2">
-        <v>0.7760651342723004</v>
+        <v>0.7436967667605638</v>
       </c>
       <c r="D2">
-        <v>0.8094058685446007</v>
+        <v>0.753466139154929</v>
       </c>
       <c r="E2">
-        <v>1.494306509859155</v>
+        <v>1.577541483380281</v>
       </c>
       <c r="F2">
-        <v>0.7625755323943662</v>
+        <v>0.7425976867605627</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -885,19 +885,19 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>2.64369787511737</v>
+        <v>2.102661069295772</v>
       </c>
       <c r="C3">
-        <v>2.565580691079811</v>
+        <v>2.223039661971828</v>
       </c>
       <c r="D3">
-        <v>2.159726682629108</v>
+        <v>1.838635870422535</v>
       </c>
       <c r="E3">
-        <v>2.866674145539906</v>
+        <v>2.509856481971832</v>
       </c>
       <c r="F3">
-        <v>1.954637310798122</v>
+        <v>1.811518788169014</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -905,19 +905,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.8273397230046949</v>
+        <v>0.8022882552112675</v>
       </c>
       <c r="C4">
-        <v>1.026098531455399</v>
+        <v>1.00088637915493</v>
       </c>
       <c r="D4">
-        <v>1.05173223286385</v>
+        <v>1.025393019154929</v>
       </c>
       <c r="E4">
-        <v>1.602682704225353</v>
+        <v>1.405510522253522</v>
       </c>
       <c r="F4">
-        <v>0.9773228225352117</v>
+        <v>0.9597941774647891</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -925,19 +925,19 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>3.497751427230045</v>
+        <v>2.684783934084505</v>
       </c>
       <c r="C5">
-        <v>1.909320076995305</v>
+        <v>1.943153993802816</v>
       </c>
       <c r="D5">
-        <v>1.70580891173709</v>
+        <v>1.662989632676056</v>
       </c>
       <c r="E5">
-        <v>2.666413450704225</v>
+        <v>2.627631305352113</v>
       </c>
       <c r="F5">
-        <v>1.510705721126759</v>
+        <v>1.597829348169014</v>
       </c>
     </row>
   </sheetData>

--- a/Output Data/Crpo/Common_folder/Performance/chart_analysis.xlsx
+++ b/Output Data/Crpo/Common_folder/Performance/chart_analysis.xlsx
@@ -170,16 +170,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.8388541971830974</c:v>
+                  <c:v>0.8343336831024919</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.102661069295772</c:v>
+                  <c:v>2.084500205540163</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8022882552112675</c:v>
+                  <c:v>0.7966233844875342</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.684783934084505</c:v>
+                  <c:v>2.661008552354569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -233,16 +233,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.7436967667605638</c:v>
+                  <c:v>0.7425313274238231</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.223039661971828</c:v>
+                  <c:v>2.210857423822713</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.00088637915493</c:v>
+                  <c:v>0.9958728432132969</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.943153993802816</c:v>
+                  <c:v>1.937175227146814</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -296,16 +296,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.753466139154929</c:v>
+                  <c:v>0.7500952703601101</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.838635870422535</c:v>
+                  <c:v>1.825776424376731</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.025393019154929</c:v>
+                  <c:v>1.020466795567867</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.662989632676056</c:v>
+                  <c:v>1.657589363988919</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -359,16 +359,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.577541483380281</c:v>
+                  <c:v>1.579540041551246</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.509856481971832</c:v>
+                  <c:v>2.496303721052632</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.405510522253522</c:v>
+                  <c:v>1.394777869252078</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.627631305352113</c:v>
+                  <c:v>2.620563607756234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -422,16 +422,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.7425976867605627</c:v>
+                  <c:v>0.7391743717451517</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.811518788169014</c:v>
+                  <c:v>1.802852134072022</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9597941774647891</c:v>
+                  <c:v>0.9557481639889203</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.597829348169014</c:v>
+                  <c:v>1.595437945706372</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -865,19 +865,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.8388541971830974</v>
+        <v>0.8343336831024919</v>
       </c>
       <c r="C2">
-        <v>0.7436967667605638</v>
+        <v>0.7425313274238231</v>
       </c>
       <c r="D2">
-        <v>0.753466139154929</v>
+        <v>0.7500952703601101</v>
       </c>
       <c r="E2">
-        <v>1.577541483380281</v>
+        <v>1.579540041551246</v>
       </c>
       <c r="F2">
-        <v>0.7425976867605627</v>
+        <v>0.7391743717451517</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -885,19 +885,19 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>2.102661069295772</v>
+        <v>2.084500205540163</v>
       </c>
       <c r="C3">
-        <v>2.223039661971828</v>
+        <v>2.210857423822713</v>
       </c>
       <c r="D3">
-        <v>1.838635870422535</v>
+        <v>1.825776424376731</v>
       </c>
       <c r="E3">
-        <v>2.509856481971832</v>
+        <v>2.496303721052632</v>
       </c>
       <c r="F3">
-        <v>1.811518788169014</v>
+        <v>1.802852134072022</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -905,19 +905,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.8022882552112675</v>
+        <v>0.7966233844875342</v>
       </c>
       <c r="C4">
-        <v>1.00088637915493</v>
+        <v>0.9958728432132969</v>
       </c>
       <c r="D4">
-        <v>1.025393019154929</v>
+        <v>1.020466795567867</v>
       </c>
       <c r="E4">
-        <v>1.405510522253522</v>
+        <v>1.394777869252078</v>
       </c>
       <c r="F4">
-        <v>0.9597941774647891</v>
+        <v>0.9557481639889203</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -925,19 +925,19 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>2.684783934084505</v>
+        <v>2.661008552354569</v>
       </c>
       <c r="C5">
-        <v>1.943153993802816</v>
+        <v>1.937175227146814</v>
       </c>
       <c r="D5">
-        <v>1.662989632676056</v>
+        <v>1.657589363988919</v>
       </c>
       <c r="E5">
-        <v>2.627631305352113</v>
+        <v>2.620563607756234</v>
       </c>
       <c r="F5">
-        <v>1.597829348169014</v>
+        <v>1.595437945706372</v>
       </c>
     </row>
   </sheetData>

--- a/Output Data/Crpo/Common_folder/Performance/chart_analysis.xlsx
+++ b/Output Data/Crpo/Common_folder/Performance/chart_analysis.xlsx
@@ -170,16 +170,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.8343336831024919</c:v>
+                  <c:v>0.83170874120879</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.084500205540163</c:v>
+                  <c:v>2.0747890032967</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7966233844875342</c:v>
+                  <c:v>0.7950291758241755</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.661008552354569</c:v>
+                  <c:v>2.648635409340657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -233,16 +233,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.7425313274238231</c:v>
+                  <c:v>0.7403298170329674</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.210857423822713</c:v>
+                  <c:v>2.204330376923075</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9958728432132969</c:v>
+                  <c:v>0.9934806873626378</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.937175227146814</c:v>
+                  <c:v>1.934247701648351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -296,16 +296,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.7500952703601101</c:v>
+                  <c:v>0.7479155939560432</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.825776424376731</c:v>
+                  <c:v>1.818778958791208</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.020466795567867</c:v>
+                  <c:v>1.01845433076923</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.657589363988919</c:v>
+                  <c:v>1.653914984615384</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -359,16 +359,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.579540041551246</c:v>
+                  <c:v>1.581652417582417</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.496303721052632</c:v>
+                  <c:v>2.489366875549451</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.394777869252078</c:v>
+                  <c:v>1.390542930219781</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.620563607756234</c:v>
+                  <c:v>2.617385771978023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -422,16 +422,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.7391743717451517</c:v>
+                  <c:v>0.7385592494505487</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.802852134072022</c:v>
+                  <c:v>1.798260062637363</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9557481639889203</c:v>
+                  <c:v>0.9539882565934072</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.595437945706372</c:v>
+                  <c:v>1.594257283516484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -865,19 +865,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.8343336831024919</v>
+        <v>0.83170874120879</v>
       </c>
       <c r="C2">
-        <v>0.7425313274238231</v>
+        <v>0.7403298170329674</v>
       </c>
       <c r="D2">
-        <v>0.7500952703601101</v>
+        <v>0.7479155939560432</v>
       </c>
       <c r="E2">
-        <v>1.579540041551246</v>
+        <v>1.581652417582417</v>
       </c>
       <c r="F2">
-        <v>0.7391743717451517</v>
+        <v>0.7385592494505487</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -885,19 +885,19 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>2.084500205540163</v>
+        <v>2.0747890032967</v>
       </c>
       <c r="C3">
-        <v>2.210857423822713</v>
+        <v>2.204330376923075</v>
       </c>
       <c r="D3">
-        <v>1.825776424376731</v>
+        <v>1.818778958791208</v>
       </c>
       <c r="E3">
-        <v>2.496303721052632</v>
+        <v>2.489366875549451</v>
       </c>
       <c r="F3">
-        <v>1.802852134072022</v>
+        <v>1.798260062637363</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -905,19 +905,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.7966233844875342</v>
+        <v>0.7950291758241755</v>
       </c>
       <c r="C4">
-        <v>0.9958728432132969</v>
+        <v>0.9934806873626378</v>
       </c>
       <c r="D4">
-        <v>1.020466795567867</v>
+        <v>1.01845433076923</v>
       </c>
       <c r="E4">
-        <v>1.394777869252078</v>
+        <v>1.390542930219781</v>
       </c>
       <c r="F4">
-        <v>0.9557481639889203</v>
+        <v>0.9539882565934072</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -925,19 +925,19 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>2.661008552354569</v>
+        <v>2.648635409340657</v>
       </c>
       <c r="C5">
-        <v>1.937175227146814</v>
+        <v>1.934247701648351</v>
       </c>
       <c r="D5">
-        <v>1.657589363988919</v>
+        <v>1.653914984615384</v>
       </c>
       <c r="E5">
-        <v>2.620563607756234</v>
+        <v>2.617385771978023</v>
       </c>
       <c r="F5">
-        <v>1.595437945706372</v>
+        <v>1.594257283516484</v>
       </c>
     </row>
   </sheetData>

--- a/Output Data/Crpo/Common_folder/Performance/chart_analysis.xlsx
+++ b/Output Data/Crpo/Common_folder/Performance/chart_analysis.xlsx
@@ -170,16 +170,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.83170874120879</c:v>
+                  <c:v>0.7992404388206373</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0747890032967</c:v>
+                  <c:v>1.950409954791151</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7950291758241755</c:v>
+                  <c:v>0.7637763631449633</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.648635409340657</c:v>
+                  <c:v>2.49143926191646</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -233,16 +233,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.7403298170329674</c:v>
+                  <c:v>0.7103929941031946</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.204330376923075</c:v>
+                  <c:v>2.115030205896804</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9934806873626378</c:v>
+                  <c:v>0.9524272437346444</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.934247701648351</c:v>
+                  <c:v>1.903671383292383</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -296,16 +296,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.7479155939560432</c:v>
+                  <c:v>0.7187199361179355</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.818778958791208</c:v>
+                  <c:v>1.730219414742014</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.01845433076923</c:v>
+                  <c:v>0.9749997936117935</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.653914984615384</c:v>
+                  <c:v>1.61300626977887</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -359,16 +359,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.581652417582417</c:v>
+                  <c:v>1.527647508599508</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.489366875549451</c:v>
+                  <c:v>2.401903486240788</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.390542930219781</c:v>
+                  <c:v>1.321636717936119</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.617385771978023</c:v>
+                  <c:v>2.635120054054054</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -422,16 +422,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.7385592494505487</c:v>
+                  <c:v>0.7201862466830461</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.798260062637363</c:v>
+                  <c:v>1.738080533169533</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9539882565934072</c:v>
+                  <c:v>0.9195452343980349</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.594257283516484</c:v>
+                  <c:v>1.578963326289927</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -865,19 +865,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.83170874120879</v>
+        <v>0.7992404388206373</v>
       </c>
       <c r="C2">
-        <v>0.7403298170329674</v>
+        <v>0.7103929941031946</v>
       </c>
       <c r="D2">
-        <v>0.7479155939560432</v>
+        <v>0.7187199361179355</v>
       </c>
       <c r="E2">
-        <v>1.581652417582417</v>
+        <v>1.527647508599508</v>
       </c>
       <c r="F2">
-        <v>0.7385592494505487</v>
+        <v>0.7201862466830461</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -885,19 +885,19 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>2.0747890032967</v>
+        <v>1.950409954791151</v>
       </c>
       <c r="C3">
-        <v>2.204330376923075</v>
+        <v>2.115030205896804</v>
       </c>
       <c r="D3">
-        <v>1.818778958791208</v>
+        <v>1.730219414742014</v>
       </c>
       <c r="E3">
-        <v>2.489366875549451</v>
+        <v>2.401903486240788</v>
       </c>
       <c r="F3">
-        <v>1.798260062637363</v>
+        <v>1.738080533169533</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -905,19 +905,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.7950291758241755</v>
+        <v>0.7637763631449633</v>
       </c>
       <c r="C4">
-        <v>0.9934806873626378</v>
+        <v>0.9524272437346444</v>
       </c>
       <c r="D4">
-        <v>1.01845433076923</v>
+        <v>0.9749997936117935</v>
       </c>
       <c r="E4">
-        <v>1.390542930219781</v>
+        <v>1.321636717936119</v>
       </c>
       <c r="F4">
-        <v>0.9539882565934072</v>
+        <v>0.9195452343980349</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -925,19 +925,19 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>2.648635409340657</v>
+        <v>2.49143926191646</v>
       </c>
       <c r="C5">
-        <v>1.934247701648351</v>
+        <v>1.903671383292383</v>
       </c>
       <c r="D5">
-        <v>1.653914984615384</v>
+        <v>1.61300626977887</v>
       </c>
       <c r="E5">
-        <v>2.617385771978023</v>
+        <v>2.635120054054054</v>
       </c>
       <c r="F5">
-        <v>1.594257283516484</v>
+        <v>1.578963326289927</v>
       </c>
     </row>
   </sheetData>

--- a/Output Data/Crpo/Common_folder/Performance/chart_analysis.xlsx
+++ b/Output Data/Crpo/Common_folder/Performance/chart_analysis.xlsx
@@ -170,16 +170,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.7992404388206373</c:v>
+                  <c:v>0.79263823653846</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.950409954791151</c:v>
+                  <c:v>1.928472638942304</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7637763631449633</c:v>
+                  <c:v>0.7579752721153847</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.49143926191646</c:v>
+                  <c:v>2.464334802403844</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -233,16 +233,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.7103929941031946</c:v>
+                  <c:v>0.705740642307693</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.115030205896804</c:v>
+                  <c:v>2.100594170192307</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9524272437346444</c:v>
+                  <c:v>0.9449168495192313</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.903671383292383</c:v>
+                  <c:v>1.899966336538461</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -296,16 +296,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.7187199361179355</c:v>
+                  <c:v>0.7128991173076918</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.730219414742014</c:v>
+                  <c:v>1.717727036057692</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9749997936117935</c:v>
+                  <c:v>0.9685790293269226</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.61300626977887</c:v>
+                  <c:v>1.607334240384615</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -359,16 +359,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.527647508599508</c:v>
+                  <c:v>1.51125994326923</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.401903486240788</c:v>
+                  <c:v>2.385732178125001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.321636717936119</c:v>
+                  <c:v>1.310371479807694</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.635120054054054</c:v>
+                  <c:v>2.646548055769231</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -422,16 +422,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.7201862466830461</c:v>
+                  <c:v>0.7189450956730764</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.738080533169533</c:v>
+                  <c:v>1.727314515865384</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9195452343980349</c:v>
+                  <c:v>0.9139563562500003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.578963326289927</c:v>
+                  <c:v>1.577224537500001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -865,19 +865,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.7992404388206373</v>
+        <v>0.79263823653846</v>
       </c>
       <c r="C2">
-        <v>0.7103929941031946</v>
+        <v>0.705740642307693</v>
       </c>
       <c r="D2">
-        <v>0.7187199361179355</v>
+        <v>0.7128991173076918</v>
       </c>
       <c r="E2">
-        <v>1.527647508599508</v>
+        <v>1.51125994326923</v>
       </c>
       <c r="F2">
-        <v>0.7201862466830461</v>
+        <v>0.7189450956730764</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -885,19 +885,19 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>1.950409954791151</v>
+        <v>1.928472638942304</v>
       </c>
       <c r="C3">
-        <v>2.115030205896804</v>
+        <v>2.100594170192307</v>
       </c>
       <c r="D3">
-        <v>1.730219414742014</v>
+        <v>1.717727036057692</v>
       </c>
       <c r="E3">
-        <v>2.401903486240788</v>
+        <v>2.385732178125001</v>
       </c>
       <c r="F3">
-        <v>1.738080533169533</v>
+        <v>1.727314515865384</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -905,19 +905,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.7637763631449633</v>
+        <v>0.7579752721153847</v>
       </c>
       <c r="C4">
-        <v>0.9524272437346444</v>
+        <v>0.9449168495192313</v>
       </c>
       <c r="D4">
-        <v>0.9749997936117935</v>
+        <v>0.9685790293269226</v>
       </c>
       <c r="E4">
-        <v>1.321636717936119</v>
+        <v>1.310371479807694</v>
       </c>
       <c r="F4">
-        <v>0.9195452343980349</v>
+        <v>0.9139563562500003</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -925,19 +925,19 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>2.49143926191646</v>
+        <v>2.464334802403844</v>
       </c>
       <c r="C5">
-        <v>1.903671383292383</v>
+        <v>1.899966336538461</v>
       </c>
       <c r="D5">
-        <v>1.61300626977887</v>
+        <v>1.607334240384615</v>
       </c>
       <c r="E5">
-        <v>2.635120054054054</v>
+        <v>2.646548055769231</v>
       </c>
       <c r="F5">
-        <v>1.578963326289927</v>
+        <v>1.577224537500001</v>
       </c>
     </row>
   </sheetData>

--- a/Output Data/Crpo/Common_folder/Performance/chart_analysis.xlsx
+++ b/Output Data/Crpo/Common_folder/Performance/chart_analysis.xlsx
@@ -170,16 +170,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.79263823653846</c:v>
+                  <c:v>0.7610379082987534</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.928472638942304</c:v>
+                  <c:v>1.781831890871366</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7579752721153847</c:v>
+                  <c:v>0.7235983979253114</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.464334802403844</c:v>
+                  <c:v>2.297223314937757</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -233,16 +233,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.705740642307693</c:v>
+                  <c:v>0.6782313309128635</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.100594170192307</c:v>
+                  <c:v>2.002815932780082</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9449168495192313</c:v>
+                  <c:v>0.9054805207468883</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.899966336538461</c:v>
+                  <c:v>1.872656984024896</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -296,16 +296,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.7128991173076918</c:v>
+                  <c:v>0.685040228630705</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.717727036057692</c:v>
+                  <c:v>1.626469934024895</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9685790293269226</c:v>
+                  <c:v>0.9304968321576762</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.607334240384615</c:v>
+                  <c:v>1.566318474688796</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -359,16 +359,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.51125994326923</c:v>
+                  <c:v>1.414477635269709</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.385732178125001</c:v>
+                  <c:v>2.27941952759336</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.310371479807694</c:v>
+                  <c:v>1.241891651244815</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.646548055769231</c:v>
+                  <c:v>2.690049566804979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -422,16 +422,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.7189450956730764</c:v>
+                  <c:v>0.7040441481327798</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.727314515865384</c:v>
+                  <c:v>1.647318583402489</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9139563562500003</c:v>
+                  <c:v>0.8793980448132783</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.577224537500001</c:v>
+                  <c:v>1.554568534854772</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -865,19 +865,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.79263823653846</v>
+        <v>0.7610379082987534</v>
       </c>
       <c r="C2">
-        <v>0.705740642307693</v>
+        <v>0.6782313309128635</v>
       </c>
       <c r="D2">
-        <v>0.7128991173076918</v>
+        <v>0.685040228630705</v>
       </c>
       <c r="E2">
-        <v>1.51125994326923</v>
+        <v>1.414477635269709</v>
       </c>
       <c r="F2">
-        <v>0.7189450956730764</v>
+        <v>0.7040441481327798</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -885,19 +885,19 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>1.928472638942304</v>
+        <v>1.781831890871366</v>
       </c>
       <c r="C3">
-        <v>2.100594170192307</v>
+        <v>2.002815932780082</v>
       </c>
       <c r="D3">
-        <v>1.717727036057692</v>
+        <v>1.626469934024895</v>
       </c>
       <c r="E3">
-        <v>2.385732178125001</v>
+        <v>2.27941952759336</v>
       </c>
       <c r="F3">
-        <v>1.727314515865384</v>
+        <v>1.647318583402489</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -905,19 +905,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.7579752721153847</v>
+        <v>0.7235983979253114</v>
       </c>
       <c r="C4">
-        <v>0.9449168495192313</v>
+        <v>0.9054805207468883</v>
       </c>
       <c r="D4">
-        <v>0.9685790293269226</v>
+        <v>0.9304968321576762</v>
       </c>
       <c r="E4">
-        <v>1.310371479807694</v>
+        <v>1.241891651244815</v>
       </c>
       <c r="F4">
-        <v>0.9139563562500003</v>
+        <v>0.8793980448132783</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -925,19 +925,19 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>2.464334802403844</v>
+        <v>2.297223314937757</v>
       </c>
       <c r="C5">
-        <v>1.899966336538461</v>
+        <v>1.872656984024896</v>
       </c>
       <c r="D5">
-        <v>1.607334240384615</v>
+        <v>1.566318474688796</v>
       </c>
       <c r="E5">
-        <v>2.646548055769231</v>
+        <v>2.690049566804979</v>
       </c>
       <c r="F5">
-        <v>1.577224537500001</v>
+        <v>1.554568534854772</v>
       </c>
     </row>
   </sheetData>

--- a/Output Data/Crpo/Common_folder/Performance/chart_analysis.xlsx
+++ b/Output Data/Crpo/Common_folder/Performance/chart_analysis.xlsx
@@ -170,16 +170,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.7610379082987534</c:v>
+                  <c:v>0.7465123379446623</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.781831890871366</c:v>
+                  <c:v>1.737538593280629</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7235983979253114</c:v>
+                  <c:v>0.7163883260869567</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.297223314937757</c:v>
+                  <c:v>2.250507621343871</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -233,16 +233,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.6782313309128635</c:v>
+                  <c:v>0.6667777721343878</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.002815932780082</c:v>
+                  <c:v>1.97283293833992</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9054805207468883</c:v>
+                  <c:v>0.8997492865612653</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.872656984024896</c:v>
+                  <c:v>1.856430295059288</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -296,16 +296,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.685040228630705</c:v>
+                  <c:v>0.6733904486166001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.626469934024895</c:v>
+                  <c:v>1.593747818577074</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9304968321576762</c:v>
+                  <c:v>0.9167529175889321</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.566318474688796</c:v>
+                  <c:v>1.553365928853754</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -359,16 +359,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.414477635269709</c:v>
+                  <c:v>1.383334474703557</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.27941952759336</c:v>
+                  <c:v>2.254005657905138</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.241891651244815</c:v>
+                  <c:v>1.218928756324112</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.690049566804979</c:v>
+                  <c:v>2.694422749802371</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -422,16 +422,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.7040441481327798</c:v>
+                  <c:v>0.701543747035573</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.647318583402489</c:v>
+                  <c:v>1.628383831225297</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8793980448132783</c:v>
+                  <c:v>0.8684680003952573</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.554568534854772</c:v>
+                  <c:v>1.547558772727273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -865,19 +865,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.7610379082987534</v>
+        <v>0.7465123379446623</v>
       </c>
       <c r="C2">
-        <v>0.6782313309128635</v>
+        <v>0.6667777721343878</v>
       </c>
       <c r="D2">
-        <v>0.685040228630705</v>
+        <v>0.6733904486166001</v>
       </c>
       <c r="E2">
-        <v>1.414477635269709</v>
+        <v>1.383334474703557</v>
       </c>
       <c r="F2">
-        <v>0.7040441481327798</v>
+        <v>0.701543747035573</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -885,19 +885,19 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>1.781831890871366</v>
+        <v>1.737538593280629</v>
       </c>
       <c r="C3">
-        <v>2.002815932780082</v>
+        <v>1.97283293833992</v>
       </c>
       <c r="D3">
-        <v>1.626469934024895</v>
+        <v>1.593747818577074</v>
       </c>
       <c r="E3">
-        <v>2.27941952759336</v>
+        <v>2.254005657905138</v>
       </c>
       <c r="F3">
-        <v>1.647318583402489</v>
+        <v>1.628383831225297</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -905,19 +905,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.7235983979253114</v>
+        <v>0.7163883260869567</v>
       </c>
       <c r="C4">
-        <v>0.9054805207468883</v>
+        <v>0.8997492865612653</v>
       </c>
       <c r="D4">
-        <v>0.9304968321576762</v>
+        <v>0.9167529175889321</v>
       </c>
       <c r="E4">
-        <v>1.241891651244815</v>
+        <v>1.218928756324112</v>
       </c>
       <c r="F4">
-        <v>0.8793980448132783</v>
+        <v>0.8684680003952573</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -925,19 +925,19 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>2.297223314937757</v>
+        <v>2.250507621343871</v>
       </c>
       <c r="C5">
-        <v>1.872656984024896</v>
+        <v>1.856430295059288</v>
       </c>
       <c r="D5">
-        <v>1.566318474688796</v>
+        <v>1.553365928853754</v>
       </c>
       <c r="E5">
-        <v>2.690049566804979</v>
+        <v>2.694422749802371</v>
       </c>
       <c r="F5">
-        <v>1.554568534854772</v>
+        <v>1.547558772727273</v>
       </c>
     </row>
   </sheetData>

--- a/Output Data/Crpo/Common_folder/Performance/chart_analysis.xlsx
+++ b/Output Data/Crpo/Common_folder/Performance/chart_analysis.xlsx
@@ -170,16 +170,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.7465123379446623</c:v>
+                  <c:v>0.7430986108527113</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.737538593280629</c:v>
+                  <c:v>1.721237652713175</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7163883260869567</c:v>
+                  <c:v>0.7136790306201553</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.250507621343871</c:v>
+                  <c:v>2.226398058139533</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -233,16 +233,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.6667777721343878</c:v>
+                  <c:v>0.6650513199612409</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.97283293833992</c:v>
+                  <c:v>1.95225697868217</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8997492865612653</c:v>
+                  <c:v>0.8964332600775199</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.856430295059288</c:v>
+                  <c:v>1.842678143217053</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -296,16 +296,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.6733904486166001</c:v>
+                  <c:v>0.6723258368217048</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.593747818577074</c:v>
+                  <c:v>1.583446072868216</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9167529175889321</c:v>
+                  <c:v>0.9153480060077512</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.553365928853754</c:v>
+                  <c:v>1.543900411627906</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -359,16 +359,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.383334474703557</c:v>
+                  <c:v>1.374945475193798</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.254005657905138</c:v>
+                  <c:v>2.228185304457364</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.218928756324112</c:v>
+                  <c:v>1.214083474612405</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.694422749802371</c:v>
+                  <c:v>2.669532110077519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -422,16 +422,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.701543747035573</c:v>
+                  <c:v>0.7009225127906976</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.628383831225297</c:v>
+                  <c:v>1.624297441860465</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8684680003952573</c:v>
+                  <c:v>0.8661419693798453</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.547558772727273</c:v>
+                  <c:v>1.539565855426357</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -865,19 +865,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.7465123379446623</v>
+        <v>0.7430986108527113</v>
       </c>
       <c r="C2">
-        <v>0.6667777721343878</v>
+        <v>0.6650513199612409</v>
       </c>
       <c r="D2">
-        <v>0.6733904486166001</v>
+        <v>0.6723258368217048</v>
       </c>
       <c r="E2">
-        <v>1.383334474703557</v>
+        <v>1.374945475193798</v>
       </c>
       <c r="F2">
-        <v>0.701543747035573</v>
+        <v>0.7009225127906976</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -885,19 +885,19 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>1.737538593280629</v>
+        <v>1.721237652713175</v>
       </c>
       <c r="C3">
-        <v>1.97283293833992</v>
+        <v>1.95225697868217</v>
       </c>
       <c r="D3">
-        <v>1.593747818577074</v>
+        <v>1.583446072868216</v>
       </c>
       <c r="E3">
-        <v>2.254005657905138</v>
+        <v>2.228185304457364</v>
       </c>
       <c r="F3">
-        <v>1.628383831225297</v>
+        <v>1.624297441860465</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -905,19 +905,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.7163883260869567</v>
+        <v>0.7136790306201553</v>
       </c>
       <c r="C4">
-        <v>0.8997492865612653</v>
+        <v>0.8964332600775199</v>
       </c>
       <c r="D4">
-        <v>0.9167529175889321</v>
+        <v>0.9153480060077512</v>
       </c>
       <c r="E4">
-        <v>1.218928756324112</v>
+        <v>1.214083474612405</v>
       </c>
       <c r="F4">
-        <v>0.8684680003952573</v>
+        <v>0.8661419693798453</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -925,19 +925,19 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>2.250507621343871</v>
+        <v>2.226398058139533</v>
       </c>
       <c r="C5">
-        <v>1.856430295059288</v>
+        <v>1.842678143217053</v>
       </c>
       <c r="D5">
-        <v>1.553365928853754</v>
+        <v>1.543900411627906</v>
       </c>
       <c r="E5">
-        <v>2.694422749802371</v>
+        <v>2.669532110077519</v>
       </c>
       <c r="F5">
-        <v>1.547558772727273</v>
+        <v>1.539565855426357</v>
       </c>
     </row>
   </sheetData>

--- a/Output Data/Crpo/Common_folder/Performance/chart_analysis.xlsx
+++ b/Output Data/Crpo/Common_folder/Performance/chart_analysis.xlsx
@@ -170,16 +170,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.7465123379446623</c:v>
+                  <c:v>0.7448137300589375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.737538593280629</c:v>
+                  <c:v>1.736321302161097</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7163883260869567</c:v>
+                  <c:v>0.7113066667976427</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.250507621343871</c:v>
+                  <c:v>2.250325113948917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -233,16 +233,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.6667777721343878</c:v>
+                  <c:v>0.6652800453831044</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.97283293833992</c:v>
+                  <c:v>1.96889059253438</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8997492865612653</c:v>
+                  <c:v>0.8955002691552068</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.856430295059288</c:v>
+                  <c:v>1.859039206876227</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -296,16 +296,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.6733904486166001</c:v>
+                  <c:v>0.6716788628683688</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.593747818577074</c:v>
+                  <c:v>1.602468851080549</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9167529175889321</c:v>
+                  <c:v>0.9152757125736731</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.553365928853754</c:v>
+                  <c:v>1.563330829469547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -359,16 +359,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.383334474703557</c:v>
+                  <c:v>1.379068736738703</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.254005657905138</c:v>
+                  <c:v>2.32884015265226</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.218928756324112</c:v>
+                  <c:v>1.2162615848723</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.694422749802371</c:v>
+                  <c:v>2.744840298624755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -422,16 +422,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.701543747035573</c:v>
+                  <c:v>0.6983432003929271</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.628383831225297</c:v>
+                  <c:v>1.668467535952849</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8684680003952573</c:v>
+                  <c:v>0.86667072416503</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.547558772727273</c:v>
+                  <c:v>1.579397547347741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -865,19 +865,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.7465123379446623</v>
+        <v>0.7448137300589375</v>
       </c>
       <c r="C2">
-        <v>0.6667777721343878</v>
+        <v>0.6652800453831044</v>
       </c>
       <c r="D2">
-        <v>0.6733904486166001</v>
+        <v>0.6716788628683688</v>
       </c>
       <c r="E2">
-        <v>1.383334474703557</v>
+        <v>1.379068736738703</v>
       </c>
       <c r="F2">
-        <v>0.701543747035573</v>
+        <v>0.6983432003929271</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -885,19 +885,19 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>1.737538593280629</v>
+        <v>1.736321302161097</v>
       </c>
       <c r="C3">
-        <v>1.97283293833992</v>
+        <v>1.96889059253438</v>
       </c>
       <c r="D3">
-        <v>1.593747818577074</v>
+        <v>1.602468851080549</v>
       </c>
       <c r="E3">
-        <v>2.254005657905138</v>
+        <v>2.32884015265226</v>
       </c>
       <c r="F3">
-        <v>1.628383831225297</v>
+        <v>1.668467535952849</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -905,19 +905,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.7163883260869567</v>
+        <v>0.7113066667976427</v>
       </c>
       <c r="C4">
-        <v>0.8997492865612653</v>
+        <v>0.8955002691552068</v>
       </c>
       <c r="D4">
-        <v>0.9167529175889321</v>
+        <v>0.9152757125736731</v>
       </c>
       <c r="E4">
-        <v>1.218928756324112</v>
+        <v>1.2162615848723</v>
       </c>
       <c r="F4">
-        <v>0.8684680003952573</v>
+        <v>0.86667072416503</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -925,19 +925,19 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>2.250507621343871</v>
+        <v>2.250325113948917</v>
       </c>
       <c r="C5">
-        <v>1.856430295059288</v>
+        <v>1.859039206876227</v>
       </c>
       <c r="D5">
-        <v>1.553365928853754</v>
+        <v>1.563330829469547</v>
       </c>
       <c r="E5">
-        <v>2.694422749802371</v>
+        <v>2.744840298624755</v>
       </c>
       <c r="F5">
-        <v>1.547558772727273</v>
+        <v>1.579397547347741</v>
       </c>
     </row>
   </sheetData>
